--- a/medicine/Psychotrope/Gesellschaft_für_Geschichte_des_Brauwesens/Gesellschaft_für_Geschichte_des_Brauwesens.xlsx
+++ b/medicine/Psychotrope/Gesellschaft_für_Geschichte_des_Brauwesens/Gesellschaft_für_Geschichte_des_Brauwesens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Gesellschaft_f%C3%BCr_Geschichte_des_Brauwesens</t>
+          <t>Gesellschaft_für_Geschichte_des_Brauwesens</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Gesellschaft für Geschichte des Brauwesens (GGB) est une Association à but non lucratif pour le soutien, la recherche, et la documentation de l'histoire des techniques de brassage. Le GGB est situé à Berlin-Wedding, sur Seestrasse. 
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Gesellschaft_f%C3%BCr_Geschichte_des_Brauwesens</t>
+          <t>Gesellschaft_für_Geschichte_des_Brauwesens</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>L'histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La société a été créé en 1913, sous le nom Gesellschaft für die Geschichte und Bibliographie des Brauwesens (Société d'Histoire et de Biblioghraphie du Brassage). En 2006, la société comporte 300 membres, institutions, compagnies et individus confondus. La société est un membre affilié à la Brewery History Society[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La société a été créé en 1913, sous le nom Gesellschaft für die Geschichte und Bibliographie des Brauwesens (Société d'Histoire et de Biblioghraphie du Brassage). En 2006, la société comporte 300 membres, institutions, compagnies et individus confondus. La société est un membre affilié à la Brewery History Society.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Gesellschaft_f%C3%BCr_Geschichte_des_Brauwesens</t>
+          <t>Gesellschaft_für_Geschichte_des_Brauwesens</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>La bibliothèque</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La bibliothèque GGB partage les locaux de la bibliothèque Schultze-Berndt-Bibliothek, dans le bâtiment principal du VLB Berlin.
 </t>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Gesellschaft_f%C3%BCr_Geschichte_des_Brauwesens</t>
+          <t>Gesellschaft_für_Geschichte_des_Brauwesens</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,7 +589,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Chaque année, le GGB e.V. publie ses annales regroupant des articles sur la recherche ainsi que les activités de la société.
 </t>
